--- a/planas.xlsx
+++ b/planas.xlsx
@@ -4,14 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="540" yWindow="220" windowWidth="25040" windowHeight="15700" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
     <definedName name="Status">[1]Codes!$A$2:$A$5</definedName>
@@ -31,8 +30,29 @@
     <author>Manvydas Sokolovas</author>
   </authors>
   <commentList>
-    <comment ref="A6" authorId="0">
+    <comment ref="T2" authorId="0">
       <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">Paskutinė diena pavadinimui pateikti
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Atidaroma sistema bakalauro patikrai</t>
+        </r>
         <r>
           <rPr>
             <sz val="9"/>
@@ -40,7 +60,58 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t>Repozitorija reikalinga bakalauro darbo failams talpint, sekti jo eigą, kodo pakeitimus.</t>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">Įrištą darbą pristatyti į 410 kab. Iki 16 valandos
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AH2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Gynimas</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Repozitorija reikalinga bakalauro darbo failams talpint, sekti jo eigą, kodo pakeitimus.
+</t>
         </r>
       </text>
     </comment>
@@ -68,8 +139,17 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t>Heber, Lunde, Shephard, and Sheppard (2009)
-https://realized.oxford-man.ox.ac.uk/data</t>
+          <t xml:space="preserve">Heber, Lunde, Shephard, and Sheppard (2009)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>https://realized.oxford-man.ox.ac.uk/data</t>
         </r>
       </text>
     </comment>
@@ -77,6 +157,25 @@
       <text>
         <r>
           <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Single index MIDAS models for realised volatility
+Vienetinio indekso midas modeliai akciju rinku volatilumui
+realizuotas kintamumas
+Akciju rinku grazos volatilumo prognozavimas remiantis vienetinio indekso midas modeliais
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
             <sz val="10"/>
             <color indexed="81"/>
             <rFont val="Calibri"/>
@@ -96,12 +195,59 @@
         </r>
       </text>
     </comment>
+    <comment ref="A12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Tai reikalinga, kad atliekant ciklą nebūtų kaskart perskaičiuojamos duomenų transformacijos. Cikle naudoti midas_r_simple</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Modeling Autoregressive Processes with Moving-Quantiles-Implied Nonlinearity
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>http://www.mdpi.com/2225-1146/3/1/2</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+  <si>
+    <t>Gegužė</t>
+  </si>
+  <si>
+    <t>Birželis</t>
+  </si>
+  <si>
+    <t>Darbų planas</t>
+  </si>
   <si>
     <t>Užduotis</t>
   </si>
@@ -118,56 +264,53 @@
     <t>3 savaitė</t>
   </si>
   <si>
-    <t>Nepradėta</t>
-  </si>
-  <si>
-    <t>Baigta</t>
-  </si>
-  <si>
-    <t>Vykdoma</t>
-  </si>
-  <si>
-    <t>Darbų planas</t>
-  </si>
-  <si>
-    <t>Gegužė</t>
-  </si>
-  <si>
-    <t>Antra savaitė</t>
-  </si>
-  <si>
-    <t>Susikurti github repozitoriją</t>
-  </si>
-  <si>
     <t>4 savaitė</t>
   </si>
   <si>
     <t>5 savaitė</t>
   </si>
   <si>
-    <t>Birželis</t>
+    <t>Bendri dalykai</t>
+  </si>
+  <si>
+    <t>Susikurti GitHub repozitoriją</t>
+  </si>
+  <si>
+    <t>Baigta</t>
   </si>
   <si>
     <t>Skaityti apie midasr iš JSS</t>
   </si>
   <si>
-    <t>Vėluoja</t>
+    <t>Susipažinti su duomenimis</t>
   </si>
   <si>
-    <t>Informacijos rinkimas apie MIDAS</t>
+    <t>Pavadinimas</t>
+  </si>
+  <si>
+    <t>Nepradėta</t>
   </si>
   <si>
     <t>Modelio testavimas</t>
   </si>
   <si>
-    <t>Susipažinti su duomenimis</t>
+    <t>"Rolling window"</t>
+  </si>
+  <si>
+    <t>Susikurti duomenų matricas</t>
+  </si>
+  <si>
+    <t>Vykdoma</t>
+  </si>
+  <si>
+    <t>Skaitiniai moving quantiles</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -179,28 +322,6 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -219,6 +340,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color indexed="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="81"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Calibri"/>
@@ -232,6 +364,7 @@
       <family val="2"/>
     </font>
     <font>
+      <b/>
       <sz val="10"/>
       <color indexed="81"/>
       <name val="Calibri"/>
@@ -246,7 +379,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -258,13 +391,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1"/>
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -275,7 +408,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -287,41 +420,6 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -335,10 +433,10 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -356,6 +454,41 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -367,7 +500,42 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
       <top style="thin">
         <color auto="1"/>
@@ -380,7 +548,9 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -415,206 +585,263 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="27">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="27">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF6600"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF008000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1087,741 +1314,824 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK14"/>
+  <dimension ref="A1:AK18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="38.1640625" style="15" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.83203125" customWidth="1"/>
     <col min="3" max="37" width="2.83203125" customWidth="1"/>
-    <col min="41" max="44" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37">
-      <c r="C1" s="48" t="s">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="54"/>
+      <c r="U1" s="54"/>
+      <c r="V1" s="54"/>
+      <c r="W1" s="54"/>
+      <c r="X1" s="54"/>
+      <c r="Y1" s="54"/>
+      <c r="Z1" s="54"/>
+      <c r="AA1" s="54"/>
+      <c r="AB1" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC1" s="54"/>
+      <c r="AD1" s="54"/>
+      <c r="AE1" s="54"/>
+      <c r="AF1" s="54"/>
+      <c r="AG1" s="54"/>
+      <c r="AH1" s="54"/>
+      <c r="AI1" s="54"/>
+      <c r="AJ1" s="54"/>
+      <c r="AK1" s="54"/>
+    </row>
+    <row r="2" spans="1:37" ht="18">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="5">
+        <v>7</v>
+      </c>
+      <c r="D2" s="5">
+        <v>8</v>
+      </c>
+      <c r="E2" s="5">
         <v>9</v>
       </c>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
-      <c r="S1" s="48"/>
-      <c r="T1" s="48"/>
-      <c r="U1" s="48"/>
-      <c r="V1" s="48"/>
-      <c r="W1" s="48"/>
-      <c r="X1" s="48"/>
-      <c r="Y1" s="48"/>
-      <c r="Z1" s="48"/>
-      <c r="AA1" s="48"/>
-      <c r="AB1" s="48" t="s">
+      <c r="F2" s="5">
+        <v>10</v>
+      </c>
+      <c r="G2" s="5">
+        <v>11</v>
+      </c>
+      <c r="H2" s="5">
+        <v>12</v>
+      </c>
+      <c r="I2" s="5">
+        <v>13</v>
+      </c>
+      <c r="J2" s="5">
         <v>14</v>
       </c>
-      <c r="AC1" s="48"/>
-      <c r="AD1" s="48"/>
-      <c r="AE1" s="48"/>
-      <c r="AF1" s="48"/>
-      <c r="AG1" s="48"/>
-      <c r="AH1" s="48"/>
-      <c r="AI1" s="48"/>
-      <c r="AJ1" s="48"/>
-      <c r="AK1" s="48"/>
-    </row>
-    <row r="2" spans="1:37" ht="32" customHeight="1">
-      <c r="A2" s="20" t="s">
+      <c r="K2" s="5">
+        <v>15</v>
+      </c>
+      <c r="L2" s="5">
+        <v>16</v>
+      </c>
+      <c r="M2" s="5">
+        <v>17</v>
+      </c>
+      <c r="N2" s="5">
+        <v>18</v>
+      </c>
+      <c r="O2" s="5">
+        <v>19</v>
+      </c>
+      <c r="P2" s="5">
+        <v>20</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>21</v>
+      </c>
+      <c r="R2" s="5">
+        <v>22</v>
+      </c>
+      <c r="S2" s="5">
+        <v>23</v>
+      </c>
+      <c r="T2" s="5">
+        <v>24</v>
+      </c>
+      <c r="U2" s="5">
+        <v>25</v>
+      </c>
+      <c r="V2" s="5">
+        <v>26</v>
+      </c>
+      <c r="W2" s="5">
+        <v>27</v>
+      </c>
+      <c r="X2" s="5">
+        <v>28</v>
+      </c>
+      <c r="Y2" s="6">
+        <v>29</v>
+      </c>
+      <c r="Z2" s="5">
+        <v>30</v>
+      </c>
+      <c r="AA2" s="7">
+        <v>31</v>
+      </c>
+      <c r="AB2" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="5">
+        <v>2</v>
+      </c>
+      <c r="AD2" s="5">
+        <v>3</v>
+      </c>
+      <c r="AE2" s="5">
+        <v>4</v>
+      </c>
+      <c r="AF2" s="5">
+        <v>5</v>
+      </c>
+      <c r="AG2" s="5">
+        <v>6</v>
+      </c>
+      <c r="AH2" s="7">
+        <v>7</v>
+      </c>
+      <c r="AI2" s="5">
         <v>8</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="22">
-        <v>7</v>
-      </c>
-      <c r="D2" s="22">
-        <v>8</v>
-      </c>
-      <c r="E2" s="22">
+      <c r="AJ2" s="6">
         <v>9</v>
       </c>
-      <c r="F2" s="22">
-        <v>10</v>
-      </c>
-      <c r="G2" s="22">
-        <v>11</v>
-      </c>
-      <c r="H2" s="22">
-        <v>12</v>
-      </c>
-      <c r="I2" s="22">
-        <v>13</v>
-      </c>
-      <c r="J2" s="22">
-        <v>14</v>
-      </c>
-      <c r="K2" s="22">
-        <v>15</v>
-      </c>
-      <c r="L2" s="22">
-        <v>16</v>
-      </c>
-      <c r="M2" s="22">
-        <v>17</v>
-      </c>
-      <c r="N2" s="22">
-        <v>18</v>
-      </c>
-      <c r="O2" s="22">
-        <v>19</v>
-      </c>
-      <c r="P2" s="22">
-        <v>20</v>
-      </c>
-      <c r="Q2" s="22">
-        <v>21</v>
-      </c>
-      <c r="R2" s="22">
-        <v>22</v>
-      </c>
-      <c r="S2" s="22">
-        <v>23</v>
-      </c>
-      <c r="T2" s="22">
-        <v>24</v>
-      </c>
-      <c r="U2" s="22">
-        <v>25</v>
-      </c>
-      <c r="V2" s="22">
-        <v>26</v>
-      </c>
-      <c r="W2" s="22">
-        <v>27</v>
-      </c>
-      <c r="X2" s="22">
-        <v>28</v>
-      </c>
-      <c r="Y2" s="24">
-        <v>29</v>
-      </c>
-      <c r="Z2" s="22">
-        <v>30</v>
-      </c>
-      <c r="AA2" s="22">
-        <v>31</v>
-      </c>
-      <c r="AB2" s="22">
-        <v>1</v>
-      </c>
-      <c r="AC2" s="22">
-        <v>2</v>
-      </c>
-      <c r="AD2" s="22">
-        <v>3</v>
-      </c>
-      <c r="AE2" s="22">
-        <v>4</v>
-      </c>
-      <c r="AF2" s="22">
-        <v>5</v>
-      </c>
-      <c r="AG2" s="22">
-        <v>6</v>
-      </c>
-      <c r="AH2" s="24">
-        <v>7</v>
-      </c>
-      <c r="AI2" s="22">
-        <v>8</v>
-      </c>
-      <c r="AJ2" s="28">
-        <v>9</v>
-      </c>
-      <c r="AK2" s="22">
+      <c r="AK2" s="5">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:37">
-      <c r="A3" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="45" t="s">
+      <c r="A3" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="45" t="s">
+      <c r="B3" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="R3" s="46"/>
-      <c r="S3" s="46"/>
-      <c r="T3" s="46"/>
-      <c r="U3" s="46"/>
-      <c r="V3" s="46"/>
-      <c r="W3" s="47"/>
-      <c r="X3" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y3" s="46"/>
-      <c r="Z3" s="46"/>
-      <c r="AA3" s="46"/>
-      <c r="AB3" s="46"/>
-      <c r="AC3" s="46"/>
-      <c r="AD3" s="47"/>
-      <c r="AE3" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="AF3" s="46"/>
-      <c r="AG3" s="46"/>
-      <c r="AH3" s="46"/>
-      <c r="AI3" s="46"/>
-      <c r="AJ3" s="46"/>
-      <c r="AK3" s="47"/>
+      <c r="C3" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="60"/>
+      <c r="O3" s="60"/>
+      <c r="P3" s="61"/>
+      <c r="Q3" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="R3" s="60"/>
+      <c r="S3" s="60"/>
+      <c r="T3" s="60"/>
+      <c r="U3" s="60"/>
+      <c r="V3" s="60"/>
+      <c r="W3" s="61"/>
+      <c r="X3" s="59" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y3" s="60"/>
+      <c r="Z3" s="60"/>
+      <c r="AA3" s="60"/>
+      <c r="AB3" s="60"/>
+      <c r="AC3" s="60"/>
+      <c r="AD3" s="61"/>
+      <c r="AE3" s="59" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF3" s="60"/>
+      <c r="AG3" s="60"/>
+      <c r="AH3" s="60"/>
+      <c r="AI3" s="60"/>
+      <c r="AJ3" s="60"/>
+      <c r="AK3" s="61"/>
     </row>
     <row r="4" spans="1:37">
-      <c r="A4" s="44"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="11">
+      <c r="A4" s="56"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="8">
         <v>1</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="8">
         <v>2</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="8">
         <v>3</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="8">
         <v>4</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="8">
         <v>5</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="8">
         <v>6</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="8">
         <v>7</v>
       </c>
-      <c r="J4" s="12">
+      <c r="J4" s="9">
         <v>1</v>
       </c>
-      <c r="K4" s="13">
+      <c r="K4" s="10">
         <v>2</v>
       </c>
-      <c r="L4" s="13">
+      <c r="L4" s="10">
         <v>3</v>
       </c>
-      <c r="M4" s="13">
+      <c r="M4" s="10">
         <v>4</v>
       </c>
-      <c r="N4" s="13">
+      <c r="N4" s="10">
         <v>5</v>
       </c>
-      <c r="O4" s="13">
+      <c r="O4" s="10">
         <v>6</v>
       </c>
-      <c r="P4" s="14">
+      <c r="P4" s="11">
         <v>7</v>
       </c>
-      <c r="Q4" s="12">
+      <c r="Q4" s="9">
         <v>1</v>
       </c>
-      <c r="R4" s="13">
+      <c r="R4" s="10">
         <v>2</v>
       </c>
-      <c r="S4" s="13">
+      <c r="S4" s="10">
         <v>3</v>
       </c>
-      <c r="T4" s="13">
+      <c r="T4" s="10">
         <v>4</v>
       </c>
-      <c r="U4" s="13">
+      <c r="U4" s="10">
         <v>5</v>
       </c>
-      <c r="V4" s="13">
+      <c r="V4" s="10">
         <v>6</v>
       </c>
-      <c r="W4" s="14">
+      <c r="W4" s="11">
         <v>7</v>
       </c>
-      <c r="X4" s="12">
+      <c r="X4" s="9">
         <v>1</v>
       </c>
-      <c r="Y4" s="25">
+      <c r="Y4" s="12">
         <v>2</v>
       </c>
-      <c r="Z4" s="13">
+      <c r="Z4" s="10">
         <v>3</v>
       </c>
       <c r="AA4" s="13">
         <v>4</v>
       </c>
-      <c r="AB4" s="13">
+      <c r="AB4" s="10">
         <v>5</v>
       </c>
-      <c r="AC4" s="13">
+      <c r="AC4" s="10">
         <v>6</v>
       </c>
-      <c r="AD4" s="14">
+      <c r="AD4" s="11">
         <v>7</v>
       </c>
-      <c r="AE4" s="12">
+      <c r="AE4" s="9">
         <v>1</v>
       </c>
-      <c r="AF4" s="13">
+      <c r="AF4" s="10">
         <v>2</v>
       </c>
-      <c r="AG4" s="13">
+      <c r="AG4" s="10">
         <v>3</v>
       </c>
-      <c r="AH4" s="25">
+      <c r="AH4" s="13">
         <v>4</v>
       </c>
-      <c r="AI4" s="13">
+      <c r="AI4" s="10">
         <v>5</v>
       </c>
-      <c r="AJ4" s="29">
+      <c r="AJ4" s="12">
         <v>6</v>
       </c>
-      <c r="AK4" s="14">
+      <c r="AK4" s="11">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:37">
-      <c r="A5" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="9"/>
-      <c r="U5" s="9"/>
-      <c r="V5" s="9"/>
-      <c r="W5" s="10"/>
-      <c r="X5" s="8"/>
-      <c r="Y5" s="9"/>
-      <c r="Z5" s="9"/>
-      <c r="AA5" s="9"/>
-      <c r="AB5" s="9"/>
-      <c r="AC5" s="9"/>
-      <c r="AD5" s="10"/>
-      <c r="AE5" s="8"/>
-      <c r="AF5" s="9"/>
-      <c r="AG5" s="9"/>
-      <c r="AH5" s="9"/>
-      <c r="AI5" s="9"/>
-      <c r="AJ5" s="9"/>
-      <c r="AK5" s="10"/>
+      <c r="A5" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="17"/>
+      <c r="V5" s="17"/>
+      <c r="W5" s="18"/>
+      <c r="X5" s="16"/>
+      <c r="Y5" s="17"/>
+      <c r="Z5" s="17"/>
+      <c r="AA5" s="17"/>
+      <c r="AB5" s="17"/>
+      <c r="AC5" s="17"/>
+      <c r="AD5" s="18"/>
+      <c r="AE5" s="16"/>
+      <c r="AF5" s="17"/>
+      <c r="AG5" s="17"/>
+      <c r="AH5" s="17"/>
+      <c r="AI5" s="17"/>
+      <c r="AJ5" s="17"/>
+      <c r="AK5" s="18"/>
     </row>
     <row r="6" spans="1:37">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="4"/>
-      <c r="X6" s="3"/>
-      <c r="Y6" s="26"/>
-      <c r="Z6" s="2"/>
-      <c r="AA6" s="2"/>
-      <c r="AB6" s="2"/>
-      <c r="AC6" s="2"/>
-      <c r="AD6" s="4"/>
-      <c r="AE6" s="3"/>
-      <c r="AF6" s="2"/>
-      <c r="AG6" s="2"/>
+      <c r="B6" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="21"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="23"/>
+      <c r="T6" s="23"/>
+      <c r="U6" s="23"/>
+      <c r="V6" s="23"/>
+      <c r="W6" s="24"/>
+      <c r="X6" s="25"/>
+      <c r="Y6" s="22"/>
+      <c r="Z6" s="23"/>
+      <c r="AA6" s="26"/>
+      <c r="AB6" s="23"/>
+      <c r="AC6" s="23"/>
+      <c r="AD6" s="24"/>
+      <c r="AE6" s="25"/>
+      <c r="AF6" s="23"/>
+      <c r="AG6" s="23"/>
       <c r="AH6" s="26"/>
-      <c r="AI6" s="2"/>
-      <c r="AJ6" s="30"/>
-      <c r="AK6" s="4"/>
+      <c r="AI6" s="23"/>
+      <c r="AJ6" s="22"/>
+      <c r="AK6" s="24"/>
     </row>
     <row r="7" spans="1:37">
-      <c r="A7" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
-      <c r="V7" s="2"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="3"/>
-      <c r="Y7" s="26"/>
-      <c r="Z7" s="2"/>
-      <c r="AA7" s="2"/>
-      <c r="AB7" s="2"/>
-      <c r="AC7" s="2"/>
-      <c r="AD7" s="4"/>
-      <c r="AE7" s="3"/>
-      <c r="AF7" s="2"/>
-      <c r="AG7" s="2"/>
+      <c r="A7" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="25"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="23"/>
+      <c r="S7" s="23"/>
+      <c r="T7" s="23"/>
+      <c r="U7" s="23"/>
+      <c r="V7" s="23"/>
+      <c r="W7" s="24"/>
+      <c r="X7" s="25"/>
+      <c r="Y7" s="22"/>
+      <c r="Z7" s="23"/>
+      <c r="AA7" s="26"/>
+      <c r="AB7" s="23"/>
+      <c r="AC7" s="23"/>
+      <c r="AD7" s="24"/>
+      <c r="AE7" s="25"/>
+      <c r="AF7" s="23"/>
+      <c r="AG7" s="23"/>
       <c r="AH7" s="26"/>
-      <c r="AI7" s="2"/>
-      <c r="AJ7" s="30"/>
-      <c r="AK7" s="4"/>
+      <c r="AI7" s="23"/>
+      <c r="AJ7" s="22"/>
+      <c r="AK7" s="24"/>
     </row>
     <row r="8" spans="1:37">
-      <c r="A8" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="41"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
-      <c r="V8" s="2"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="26"/>
-      <c r="Z8" s="2"/>
-      <c r="AA8" s="2"/>
-      <c r="AB8" s="2"/>
-      <c r="AC8" s="2"/>
-      <c r="AD8" s="4"/>
-      <c r="AE8" s="3"/>
-      <c r="AF8" s="2"/>
-      <c r="AG8" s="2"/>
+      <c r="A8" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="29"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="25"/>
+      <c r="R8" s="23"/>
+      <c r="S8" s="23"/>
+      <c r="T8" s="23"/>
+      <c r="U8" s="23"/>
+      <c r="V8" s="23"/>
+      <c r="W8" s="24"/>
+      <c r="X8" s="25"/>
+      <c r="Y8" s="22"/>
+      <c r="Z8" s="23"/>
+      <c r="AA8" s="26"/>
+      <c r="AB8" s="23"/>
+      <c r="AC8" s="23"/>
+      <c r="AD8" s="24"/>
+      <c r="AE8" s="25"/>
+      <c r="AF8" s="23"/>
+      <c r="AG8" s="23"/>
       <c r="AH8" s="26"/>
-      <c r="AI8" s="2"/>
-      <c r="AJ8" s="30"/>
-      <c r="AK8" s="4"/>
+      <c r="AI8" s="23"/>
+      <c r="AJ8" s="22"/>
+      <c r="AK8" s="24"/>
     </row>
     <row r="9" spans="1:37">
-      <c r="A9" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
-      <c r="U9" s="6"/>
-      <c r="V9" s="6"/>
-      <c r="W9" s="7"/>
-      <c r="X9" s="5"/>
-      <c r="Y9" s="27"/>
-      <c r="Z9" s="6"/>
-      <c r="AA9" s="6"/>
-      <c r="AB9" s="6"/>
-      <c r="AC9" s="6"/>
-      <c r="AD9" s="7"/>
-      <c r="AE9" s="5"/>
-      <c r="AF9" s="6"/>
-      <c r="AG9" s="6"/>
-      <c r="AH9" s="27"/>
-      <c r="AI9" s="6"/>
-      <c r="AJ9" s="31"/>
-      <c r="AK9" s="7"/>
+      <c r="A9" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="29"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="23"/>
+      <c r="S9" s="23"/>
+      <c r="T9" s="23"/>
+      <c r="U9" s="23"/>
+      <c r="V9" s="23"/>
+      <c r="W9" s="24"/>
+      <c r="X9" s="25"/>
+      <c r="Y9" s="22"/>
+      <c r="Z9" s="23"/>
+      <c r="AA9" s="26"/>
+      <c r="AB9" s="23"/>
+      <c r="AC9" s="23"/>
+      <c r="AD9" s="24"/>
+      <c r="AE9" s="25"/>
+      <c r="AF9" s="23"/>
+      <c r="AG9" s="23"/>
+      <c r="AH9" s="26"/>
+      <c r="AI9" s="23"/>
+      <c r="AJ9" s="22"/>
+      <c r="AK9" s="24"/>
     </row>
     <row r="10" spans="1:37">
-      <c r="A10" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="9"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="9"/>
-      <c r="U10" s="9"/>
-      <c r="V10" s="9"/>
-      <c r="W10" s="10"/>
-      <c r="X10" s="8"/>
-      <c r="Y10" s="9"/>
-      <c r="Z10" s="9"/>
-      <c r="AA10" s="9"/>
-      <c r="AB10" s="9"/>
-      <c r="AC10" s="9"/>
-      <c r="AD10" s="10"/>
-      <c r="AE10" s="8"/>
-      <c r="AF10" s="9"/>
-      <c r="AG10" s="9"/>
-      <c r="AH10" s="9"/>
-      <c r="AI10" s="9"/>
-      <c r="AJ10" s="9"/>
-      <c r="AK10" s="10"/>
+      <c r="A10" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="31"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="33"/>
+      <c r="P10" s="34"/>
+      <c r="Q10" s="32"/>
+      <c r="R10" s="33"/>
+      <c r="S10" s="33"/>
+      <c r="T10" s="33"/>
+      <c r="U10" s="33"/>
+      <c r="V10" s="33"/>
+      <c r="W10" s="34"/>
+      <c r="X10" s="32"/>
+      <c r="Y10" s="33"/>
+      <c r="Z10" s="33"/>
+      <c r="AA10" s="33"/>
+      <c r="AB10" s="33"/>
+      <c r="AC10" s="33"/>
+      <c r="AD10" s="34"/>
+      <c r="AE10" s="32"/>
+      <c r="AF10" s="33"/>
+      <c r="AG10" s="33"/>
+      <c r="AH10" s="33"/>
+      <c r="AI10" s="33"/>
+      <c r="AJ10" s="33"/>
+      <c r="AK10" s="34"/>
     </row>
     <row r="11" spans="1:37">
-      <c r="A11" s="16"/>
-      <c r="B11" s="40"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
-      <c r="U11" s="2"/>
-      <c r="V11" s="2"/>
-      <c r="W11" s="4"/>
-      <c r="X11" s="3"/>
-      <c r="Y11" s="26"/>
-      <c r="Z11" s="2"/>
-      <c r="AA11" s="2"/>
-      <c r="AB11" s="2"/>
-      <c r="AC11" s="2"/>
-      <c r="AD11" s="4"/>
-      <c r="AE11" s="3"/>
-      <c r="AF11" s="2"/>
-      <c r="AG11" s="2"/>
-      <c r="AH11" s="26"/>
-      <c r="AI11" s="2"/>
-      <c r="AJ11" s="30"/>
-      <c r="AK11" s="4"/>
+      <c r="A11" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="36"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="37"/>
+      <c r="O11" s="37"/>
+      <c r="P11" s="37"/>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="37"/>
+      <c r="S11" s="37"/>
+      <c r="T11" s="37"/>
+      <c r="U11" s="37"/>
+      <c r="V11" s="37"/>
+      <c r="W11" s="37"/>
+      <c r="X11" s="36"/>
+      <c r="Y11" s="38"/>
+      <c r="Z11" s="37"/>
+      <c r="AA11" s="41"/>
+      <c r="AB11" s="37"/>
+      <c r="AC11" s="37"/>
+      <c r="AD11" s="37"/>
+      <c r="AE11" s="36"/>
+      <c r="AF11" s="37"/>
+      <c r="AG11" s="37"/>
+      <c r="AH11" s="41"/>
+      <c r="AI11" s="37"/>
+      <c r="AJ11" s="38"/>
+      <c r="AK11" s="42"/>
     </row>
     <row r="12" spans="1:37">
-      <c r="A12" s="17"/>
-      <c r="B12" s="40"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
-      <c r="U12" s="2"/>
-      <c r="V12" s="2"/>
-      <c r="W12" s="4"/>
-      <c r="X12" s="3"/>
-      <c r="Y12" s="26"/>
-      <c r="Z12" s="2"/>
-      <c r="AA12" s="2"/>
-      <c r="AB12" s="2"/>
-      <c r="AC12" s="2"/>
-      <c r="AD12" s="4"/>
-      <c r="AE12" s="3"/>
-      <c r="AF12" s="2"/>
-      <c r="AG12" s="2"/>
+      <c r="A12" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="25"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="43"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="25"/>
+      <c r="R12" s="23"/>
+      <c r="S12" s="23"/>
+      <c r="T12" s="23"/>
+      <c r="U12" s="23"/>
+      <c r="V12" s="23"/>
+      <c r="W12" s="23"/>
+      <c r="X12" s="25"/>
+      <c r="Y12" s="22"/>
+      <c r="Z12" s="23"/>
+      <c r="AA12" s="26"/>
+      <c r="AB12" s="23"/>
+      <c r="AC12" s="23"/>
+      <c r="AD12" s="23"/>
+      <c r="AE12" s="25"/>
+      <c r="AF12" s="23"/>
+      <c r="AG12" s="23"/>
       <c r="AH12" s="26"/>
-      <c r="AI12" s="2"/>
-      <c r="AJ12" s="30"/>
-      <c r="AK12" s="4"/>
+      <c r="AI12" s="23"/>
+      <c r="AJ12" s="22"/>
+      <c r="AK12" s="24"/>
     </row>
     <row r="13" spans="1:37">
-      <c r="A13" s="18"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="6"/>
-      <c r="S13" s="6"/>
-      <c r="T13" s="6"/>
-      <c r="U13" s="6"/>
-      <c r="V13" s="6"/>
-      <c r="W13" s="7"/>
-      <c r="X13" s="5"/>
-      <c r="Y13" s="27"/>
-      <c r="Z13" s="6"/>
-      <c r="AA13" s="6"/>
-      <c r="AB13" s="6"/>
-      <c r="AC13" s="6"/>
-      <c r="AD13" s="7"/>
-      <c r="AE13" s="5"/>
-      <c r="AF13" s="6"/>
-      <c r="AG13" s="6"/>
-      <c r="AH13" s="27"/>
-      <c r="AI13" s="6"/>
-      <c r="AJ13" s="31"/>
-      <c r="AK13" s="7"/>
+      <c r="A13" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="45"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="47"/>
+      <c r="M13" s="46"/>
+      <c r="N13" s="46"/>
+      <c r="O13" s="46"/>
+      <c r="P13" s="46"/>
+      <c r="Q13" s="45"/>
+      <c r="R13" s="46"/>
+      <c r="S13" s="46"/>
+      <c r="T13" s="46"/>
+      <c r="U13" s="46"/>
+      <c r="V13" s="46"/>
+      <c r="W13" s="46"/>
+      <c r="X13" s="45"/>
+      <c r="Y13" s="48"/>
+      <c r="Z13" s="46"/>
+      <c r="AA13" s="49"/>
+      <c r="AB13" s="46"/>
+      <c r="AC13" s="46"/>
+      <c r="AD13" s="46"/>
+      <c r="AE13" s="45"/>
+      <c r="AF13" s="46"/>
+      <c r="AG13" s="46"/>
+      <c r="AH13" s="49"/>
+      <c r="AI13" s="46"/>
+      <c r="AJ13" s="48"/>
+      <c r="AK13" s="50"/>
     </row>
     <row r="14" spans="1:37">
-      <c r="B14" s="39"/>
+      <c r="A14" s="30"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="52"/>
+      <c r="O14" s="52"/>
+      <c r="P14" s="53"/>
+      <c r="Q14" s="51"/>
+      <c r="R14" s="52"/>
+      <c r="S14" s="52"/>
+      <c r="T14" s="52"/>
+      <c r="U14" s="52"/>
+      <c r="V14" s="52"/>
+      <c r="W14" s="53"/>
+      <c r="X14" s="51"/>
+      <c r="Y14" s="52"/>
+      <c r="Z14" s="52"/>
+      <c r="AA14" s="52"/>
+      <c r="AB14" s="52"/>
+      <c r="AC14" s="52"/>
+      <c r="AD14" s="53"/>
+      <c r="AE14" s="51"/>
+      <c r="AF14" s="52"/>
+      <c r="AG14" s="52"/>
+      <c r="AH14" s="52"/>
+      <c r="AI14" s="52"/>
+      <c r="AJ14" s="52"/>
+      <c r="AK14" s="53"/>
+    </row>
+    <row r="15" spans="1:37">
+      <c r="A15" s="1"/>
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:37">
+      <c r="A16" s="1"/>
+      <c r="B16" s="2"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="2"/>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="AE3:AK3"/>
+    <mergeCell ref="C1:AA1"/>
     <mergeCell ref="AB1:AK1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:I3"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A3:A4"/>
     <mergeCell ref="J3:P3"/>
     <mergeCell ref="Q3:W3"/>
     <mergeCell ref="X3:AD3"/>
-    <mergeCell ref="C1:AA1"/>
+    <mergeCell ref="AE3:AK3"/>
   </mergeCells>
-  <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="Baigta">
+  <conditionalFormatting sqref="B15:B18 B1:B13">
+    <cfRule type="containsText" dxfId="9" priority="7" operator="containsText" text="Baigta">
       <formula>NOT(ISERROR(SEARCH("Baigta",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="Vykdoma">
+    <cfRule type="containsText" dxfId="8" priority="8" operator="containsText" text="Vykdoma">
       <formula>NOT(ISERROR(SEARCH("Vykdoma",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="Vėluoja">
+    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="Vėluoja">
       <formula>NOT(ISERROR(SEARCH("Vėluoja",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="6" operator="containsText" text="Nepradėta">
+    <cfRule type="containsText" dxfId="6" priority="10" operator="containsText" text="Nepradėta">
       <formula>NOT(ISERROR(SEARCH("Nepradėta",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5 B10">
-    <cfRule type="containsBlanks" dxfId="0" priority="2">
+    <cfRule type="containsBlanks" dxfId="5" priority="6">
       <formula>LEN(TRIM(B5))=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B14">
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="Baigta">
+      <formula>NOT(ISERROR(SEARCH("Baigta",B14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Vykdoma">
+      <formula>NOT(ISERROR(SEARCH("Vykdoma",B14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="Vėluoja">
+      <formula>NOT(ISERROR(SEARCH("Vėluoja",B14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="Nepradėta">
+      <formula>NOT(ISERROR(SEARCH("Nepradėta",B14)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14">
+    <cfRule type="containsBlanks" dxfId="0" priority="1">
+      <formula>LEN(TRIM(B14))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5 B10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5 B10 B14">
       <formula1>Status</formula1>
     </dataValidation>
   </dataValidations>
@@ -1832,9 +2142,9 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Sheet2!$A$2:$A$5</xm:f>
+            <xm:f>#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>B11:B13 B6:B9</xm:sqref>
+          <xm:sqref>B6:B9 B11:B13</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1843,49 +2153,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
 </file>
--- a/planas.xlsx
+++ b/planas.xlsx
@@ -8,9 +8,10 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
     <definedName name="Status">[1]Codes!$A$2:$A$5</definedName>
@@ -104,13 +105,21 @@
       <text>
         <r>
           <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Repozitorija reikalinga bakalauro darbo failams talpint, sekti jo eigą, kodo pakeitimus.</t>
+        </r>
+        <r>
+          <rPr>
             <b/>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Repozitorija reikalinga bakalauro darbo failams talpint, sekti jo eigą, kodo pakeitimus.
+          <t xml:space="preserve">
 </t>
         </r>
       </text>
@@ -119,11 +128,9 @@
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="9"/>
+            <sz val="10"/>
             <color indexed="81"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
           </rPr>
           <t>Mixed Frequency Data Sampling Regression Models: The R Package midasr</t>
         </r>
@@ -133,28 +140,28 @@
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="9"/>
+            <sz val="10"/>
             <color indexed="81"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Heber, Lunde, Shephard, and Sheppard (2009)
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>https://realized.oxford-man.ox.ac.uk/data</t>
+          <t>Heber, Lunde, Shephard, and Sheppard (2009)
+https://realized.oxford-man.ox.ac.uk/data</t>
         </r>
       </text>
     </comment>
     <comment ref="A9" authorId="0">
       <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Single index MIDAS models for realised volatility
+Vienetinio indekso midas modeliai akciju rinku volatilumui
+realizuotas kintamumas
+Akciju rinku grazos volatilumo prognozavimas remiantis vienetinio indekso midas modeliais</t>
+        </r>
         <r>
           <rPr>
             <b/>
@@ -163,10 +170,7 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Single index MIDAS models for realised volatility
-Vienetinio indekso midas modeliai akciju rinku volatilumui
-realizuotas kintamumas
-Akciju rinku grazos volatilumo prognozavimas remiantis vienetinio indekso midas modeliais
+          <t xml:space="preserve">
 </t>
         </r>
       </text>
@@ -175,7 +179,6 @@
       <text>
         <r>
           <rPr>
-            <b/>
             <sz val="10"/>
             <color indexed="81"/>
             <rFont val="Calibri"/>
@@ -199,10 +202,9 @@
       <text>
         <r>
           <rPr>
-            <sz val="12"/>
+            <sz val="10"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Tai reikalinga, kad atliekant ciklą nebūtų kaskart perskaičiuojamos duomenų transformacijos. Cikle naudoti midas_r_simple</t>
@@ -213,23 +215,24 @@
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="9"/>
+            <sz val="10"/>
             <color indexed="81"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Modeling Autoregressive Processes with Moving-Quantiles-Implied Nonlinearity
-</t>
+          <t>Išsiaiškinti kaip naudoti, kaip veikia, peržiūrėti funkciją GitHub'e</t>
         </r>
+      </text>
+    </comment>
+    <comment ref="A14" authorId="0">
+      <text>
         <r>
           <rPr>
-            <sz val="9"/>
+            <sz val="10"/>
             <color indexed="81"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
           </rPr>
-          <t>http://www.mdpi.com/2225-1146/3/1/2</t>
+          <t>Modeling Autoregressive Processes with Moving-Quantiles-Implied Nonlinearity
+http://www.mdpi.com/2225-1146/3/1/2</t>
         </r>
       </text>
     </comment>
@@ -238,7 +241,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
   <si>
     <t>Gegužė</t>
   </si>
@@ -305,12 +308,18 @@
   <si>
     <t>Skaitiniai moving quantiles</t>
   </si>
+  <si>
+    <t>Naudoti midas_r_simple</t>
+  </si>
+  <si>
+    <t>Vėluoja</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -364,10 +373,33 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
       <sz val="10"/>
-      <color indexed="81"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -586,10 +618,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -704,6 +738,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -729,10 +764,264 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="22">
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF6600"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF008000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF6600"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF008000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF6600"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF008000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1314,10 +1603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK18"/>
+  <dimension ref="A1:AK19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1329,45 +1618,45 @@
     <row r="1" spans="1:37">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="54"/>
-      <c r="T1" s="54"/>
-      <c r="U1" s="54"/>
-      <c r="V1" s="54"/>
-      <c r="W1" s="54"/>
-      <c r="X1" s="54"/>
-      <c r="Y1" s="54"/>
-      <c r="Z1" s="54"/>
-      <c r="AA1" s="54"/>
-      <c r="AB1" s="54" t="s">
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="55"/>
+      <c r="W1" s="55"/>
+      <c r="X1" s="55"/>
+      <c r="Y1" s="55"/>
+      <c r="Z1" s="55"/>
+      <c r="AA1" s="55"/>
+      <c r="AB1" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="AC1" s="54"/>
-      <c r="AD1" s="54"/>
-      <c r="AE1" s="54"/>
-      <c r="AF1" s="54"/>
-      <c r="AG1" s="54"/>
-      <c r="AH1" s="54"/>
-      <c r="AI1" s="54"/>
-      <c r="AJ1" s="54"/>
-      <c r="AK1" s="54"/>
+      <c r="AC1" s="55"/>
+      <c r="AD1" s="55"/>
+      <c r="AE1" s="55"/>
+      <c r="AF1" s="55"/>
+      <c r="AG1" s="55"/>
+      <c r="AH1" s="55"/>
+      <c r="AI1" s="55"/>
+      <c r="AJ1" s="55"/>
+      <c r="AK1" s="55"/>
     </row>
     <row r="2" spans="1:37" ht="18">
       <c r="A2" s="3" t="s">
@@ -1481,61 +1770,61 @@
       </c>
     </row>
     <row r="3" spans="1:37">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="59" t="s">
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="60"/>
-      <c r="P3" s="61"/>
-      <c r="Q3" s="59" t="s">
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="R3" s="60"/>
-      <c r="S3" s="60"/>
-      <c r="T3" s="60"/>
-      <c r="U3" s="60"/>
-      <c r="V3" s="60"/>
-      <c r="W3" s="61"/>
-      <c r="X3" s="59" t="s">
+      <c r="R3" s="61"/>
+      <c r="S3" s="61"/>
+      <c r="T3" s="61"/>
+      <c r="U3" s="61"/>
+      <c r="V3" s="61"/>
+      <c r="W3" s="62"/>
+      <c r="X3" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="Y3" s="60"/>
-      <c r="Z3" s="60"/>
-      <c r="AA3" s="60"/>
-      <c r="AB3" s="60"/>
-      <c r="AC3" s="60"/>
-      <c r="AD3" s="61"/>
-      <c r="AE3" s="59" t="s">
+      <c r="Y3" s="61"/>
+      <c r="Z3" s="61"/>
+      <c r="AA3" s="61"/>
+      <c r="AB3" s="61"/>
+      <c r="AC3" s="61"/>
+      <c r="AD3" s="62"/>
+      <c r="AE3" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="AF3" s="60"/>
-      <c r="AG3" s="60"/>
-      <c r="AH3" s="60"/>
-      <c r="AI3" s="60"/>
-      <c r="AJ3" s="60"/>
-      <c r="AK3" s="61"/>
+      <c r="AF3" s="61"/>
+      <c r="AG3" s="61"/>
+      <c r="AH3" s="61"/>
+      <c r="AI3" s="61"/>
+      <c r="AJ3" s="61"/>
+      <c r="AK3" s="62"/>
     </row>
     <row r="4" spans="1:37">
-      <c r="A4" s="56"/>
-      <c r="B4" s="58"/>
+      <c r="A4" s="57"/>
+      <c r="B4" s="59"/>
       <c r="C4" s="8">
         <v>1</v>
       </c>
@@ -1744,7 +2033,7 @@
       <c r="K7" s="23"/>
       <c r="L7" s="23"/>
       <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
+      <c r="N7" s="43"/>
       <c r="O7" s="23"/>
       <c r="P7" s="24"/>
       <c r="Q7" s="25"/>
@@ -1944,7 +2233,7 @@
         <v>19</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C12" s="25"/>
       <c r="D12" s="23"/>
@@ -1956,7 +2245,7 @@
       <c r="J12" s="25"/>
       <c r="K12" s="23"/>
       <c r="L12" s="23"/>
-      <c r="M12" s="43"/>
+      <c r="M12" s="28"/>
       <c r="N12" s="23"/>
       <c r="O12" s="23"/>
       <c r="P12" s="23"/>
@@ -1983,90 +2272,129 @@
       <c r="AK12" s="24"/>
     </row>
     <row r="13" spans="1:37">
-      <c r="A13" s="44" t="s">
-        <v>21</v>
+      <c r="A13" s="19" t="s">
+        <v>22</v>
       </c>
       <c r="B13" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="45"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="45"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="47"/>
-      <c r="M13" s="46"/>
-      <c r="N13" s="46"/>
-      <c r="O13" s="46"/>
-      <c r="P13" s="46"/>
-      <c r="Q13" s="45"/>
-      <c r="R13" s="46"/>
-      <c r="S13" s="46"/>
-      <c r="T13" s="46"/>
-      <c r="U13" s="46"/>
-      <c r="V13" s="46"/>
-      <c r="W13" s="46"/>
-      <c r="X13" s="45"/>
-      <c r="Y13" s="48"/>
-      <c r="Z13" s="46"/>
-      <c r="AA13" s="49"/>
-      <c r="AB13" s="46"/>
-      <c r="AC13" s="46"/>
-      <c r="AD13" s="46"/>
-      <c r="AE13" s="45"/>
-      <c r="AF13" s="46"/>
-      <c r="AG13" s="46"/>
-      <c r="AH13" s="49"/>
-      <c r="AI13" s="46"/>
-      <c r="AJ13" s="48"/>
-      <c r="AK13" s="50"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="43"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="25"/>
+      <c r="R13" s="23"/>
+      <c r="S13" s="23"/>
+      <c r="T13" s="23"/>
+      <c r="U13" s="23"/>
+      <c r="V13" s="23"/>
+      <c r="W13" s="23"/>
+      <c r="X13" s="25"/>
+      <c r="Y13" s="22"/>
+      <c r="Z13" s="23"/>
+      <c r="AA13" s="26"/>
+      <c r="AB13" s="23"/>
+      <c r="AC13" s="23"/>
+      <c r="AD13" s="23"/>
+      <c r="AE13" s="25"/>
+      <c r="AF13" s="23"/>
+      <c r="AG13" s="23"/>
+      <c r="AH13" s="26"/>
+      <c r="AI13" s="23"/>
+      <c r="AJ13" s="22"/>
+      <c r="AK13" s="24"/>
     </row>
     <row r="14" spans="1:37">
-      <c r="A14" s="30"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="52"/>
-      <c r="L14" s="52"/>
-      <c r="M14" s="52"/>
-      <c r="N14" s="52"/>
-      <c r="O14" s="52"/>
-      <c r="P14" s="53"/>
-      <c r="Q14" s="51"/>
-      <c r="R14" s="52"/>
-      <c r="S14" s="52"/>
-      <c r="T14" s="52"/>
-      <c r="U14" s="52"/>
-      <c r="V14" s="52"/>
-      <c r="W14" s="53"/>
-      <c r="X14" s="51"/>
-      <c r="Y14" s="52"/>
-      <c r="Z14" s="52"/>
-      <c r="AA14" s="52"/>
-      <c r="AB14" s="52"/>
-      <c r="AC14" s="52"/>
-      <c r="AD14" s="53"/>
-      <c r="AE14" s="51"/>
-      <c r="AF14" s="52"/>
-      <c r="AG14" s="52"/>
-      <c r="AH14" s="52"/>
-      <c r="AI14" s="52"/>
-      <c r="AJ14" s="52"/>
-      <c r="AK14" s="53"/>
+      <c r="A14" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="45"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="46"/>
+      <c r="L14" s="47"/>
+      <c r="M14" s="46"/>
+      <c r="N14" s="46"/>
+      <c r="O14" s="46"/>
+      <c r="P14" s="46"/>
+      <c r="Q14" s="45"/>
+      <c r="R14" s="46"/>
+      <c r="S14" s="46"/>
+      <c r="T14" s="46"/>
+      <c r="U14" s="46"/>
+      <c r="V14" s="46"/>
+      <c r="W14" s="46"/>
+      <c r="X14" s="45"/>
+      <c r="Y14" s="48"/>
+      <c r="Z14" s="46"/>
+      <c r="AA14" s="49"/>
+      <c r="AB14" s="46"/>
+      <c r="AC14" s="46"/>
+      <c r="AD14" s="46"/>
+      <c r="AE14" s="45"/>
+      <c r="AF14" s="46"/>
+      <c r="AG14" s="46"/>
+      <c r="AH14" s="49"/>
+      <c r="AI14" s="46"/>
+      <c r="AJ14" s="48"/>
+      <c r="AK14" s="50"/>
     </row>
     <row r="15" spans="1:37">
-      <c r="A15" s="1"/>
-      <c r="B15" s="2"/>
+      <c r="A15" s="30"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="52"/>
+      <c r="M15" s="52"/>
+      <c r="N15" s="52"/>
+      <c r="O15" s="52"/>
+      <c r="P15" s="53"/>
+      <c r="Q15" s="51"/>
+      <c r="R15" s="52"/>
+      <c r="S15" s="52"/>
+      <c r="T15" s="52"/>
+      <c r="U15" s="52"/>
+      <c r="V15" s="52"/>
+      <c r="W15" s="53"/>
+      <c r="X15" s="51"/>
+      <c r="Y15" s="52"/>
+      <c r="Z15" s="52"/>
+      <c r="AA15" s="52"/>
+      <c r="AB15" s="52"/>
+      <c r="AC15" s="52"/>
+      <c r="AD15" s="53"/>
+      <c r="AE15" s="51"/>
+      <c r="AF15" s="52"/>
+      <c r="AG15" s="52"/>
+      <c r="AH15" s="52"/>
+      <c r="AI15" s="52"/>
+      <c r="AJ15" s="52"/>
+      <c r="AK15" s="53"/>
     </row>
     <row r="16" spans="1:37">
       <c r="A16" s="1"/>
@@ -2080,6 +2408,10 @@
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
     </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1"/>
+      <c r="B19" s="2"/>
+    </row>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="C1:AA1"/>
@@ -2092,46 +2424,46 @@
     <mergeCell ref="X3:AD3"/>
     <mergeCell ref="AE3:AK3"/>
   </mergeCells>
-  <conditionalFormatting sqref="B15:B18 B1:B13">
-    <cfRule type="containsText" dxfId="9" priority="7" operator="containsText" text="Baigta">
+  <conditionalFormatting sqref="B16:B19 B1:B14">
+    <cfRule type="containsText" dxfId="21" priority="7" operator="containsText" text="Baigta">
       <formula>NOT(ISERROR(SEARCH("Baigta",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="8" operator="containsText" text="Vykdoma">
+    <cfRule type="containsText" dxfId="20" priority="8" operator="containsText" text="Vykdoma">
       <formula>NOT(ISERROR(SEARCH("Vykdoma",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="Vėluoja">
+    <cfRule type="containsText" dxfId="19" priority="9" operator="containsText" text="Vėluoja">
       <formula>NOT(ISERROR(SEARCH("Vėluoja",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="10" operator="containsText" text="Nepradėta">
+    <cfRule type="containsText" dxfId="18" priority="10" operator="containsText" text="Nepradėta">
       <formula>NOT(ISERROR(SEARCH("Nepradėta",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5 B10">
-    <cfRule type="containsBlanks" dxfId="5" priority="6">
+    <cfRule type="containsBlanks" dxfId="17" priority="6">
       <formula>LEN(TRIM(B5))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B14">
-    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="Baigta">
-      <formula>NOT(ISERROR(SEARCH("Baigta",B14)))</formula>
+  <conditionalFormatting sqref="B15">
+    <cfRule type="containsText" dxfId="16" priority="2" operator="containsText" text="Baigta">
+      <formula>NOT(ISERROR(SEARCH("Baigta",B15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Vykdoma">
-      <formula>NOT(ISERROR(SEARCH("Vykdoma",B14)))</formula>
+    <cfRule type="containsText" dxfId="15" priority="3" operator="containsText" text="Vykdoma">
+      <formula>NOT(ISERROR(SEARCH("Vykdoma",B15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="Vėluoja">
-      <formula>NOT(ISERROR(SEARCH("Vėluoja",B14)))</formula>
+    <cfRule type="containsText" dxfId="14" priority="4" operator="containsText" text="Vėluoja">
+      <formula>NOT(ISERROR(SEARCH("Vėluoja",B15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="Nepradėta">
-      <formula>NOT(ISERROR(SEARCH("Nepradėta",B14)))</formula>
+    <cfRule type="containsText" dxfId="13" priority="5" operator="containsText" text="Nepradėta">
+      <formula>NOT(ISERROR(SEARCH("Nepradėta",B15)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B14">
-    <cfRule type="containsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(B14))=0</formula>
+  <conditionalFormatting sqref="B15">
+    <cfRule type="containsBlanks" dxfId="12" priority="1">
+      <formula>LEN(TRIM(B15))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5 B10 B14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5 B10 B15">
       <formula1>Status</formula1>
     </dataValidation>
   </dataValidations>
@@ -2142,9 +2474,9 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>#REF!</xm:f>
+            <xm:f>Sheet2!$A$2:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>B6:B9 B11:B13</xm:sqref>
+          <xm:sqref>B6:B9 B11:B14</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2153,4 +2485,49 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="54" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="54" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="54" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="54" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="54" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/planas.xlsx
+++ b/planas.xlsx
@@ -309,10 +309,10 @@
     <t>Skaitiniai moving quantiles</t>
   </si>
   <si>
-    <t>Naudoti midas_r_simple</t>
-  </si>
-  <si>
     <t>Vėluoja</t>
+  </si>
+  <si>
+    <t>midas_r_simple prognozė</t>
   </si>
 </sst>
 </file>
@@ -769,259 +769,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF6600"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF008000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF6600"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF008000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF6600"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF008000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1606,7 +1354,7 @@
   <dimension ref="A1:AK19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2034,7 +1782,7 @@
       <c r="L7" s="23"/>
       <c r="M7" s="23"/>
       <c r="N7" s="43"/>
-      <c r="O7" s="23"/>
+      <c r="O7" s="43"/>
       <c r="P7" s="24"/>
       <c r="Q7" s="25"/>
       <c r="R7" s="23"/>
@@ -2273,7 +2021,7 @@
     </row>
     <row r="13" spans="1:37">
       <c r="A13" s="19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="20" t="s">
         <v>20</v>
@@ -2289,9 +2037,9 @@
       <c r="K13" s="23"/>
       <c r="L13" s="23"/>
       <c r="M13" s="43"/>
-      <c r="N13" s="23"/>
+      <c r="N13" s="43"/>
       <c r="O13" s="23"/>
-      <c r="P13" s="23"/>
+      <c r="P13" s="43"/>
       <c r="Q13" s="25"/>
       <c r="R13" s="23"/>
       <c r="S13" s="23"/>
@@ -2425,40 +2173,40 @@
     <mergeCell ref="AE3:AK3"/>
   </mergeCells>
   <conditionalFormatting sqref="B16:B19 B1:B14">
-    <cfRule type="containsText" dxfId="21" priority="7" operator="containsText" text="Baigta">
+    <cfRule type="containsText" dxfId="9" priority="7" operator="containsText" text="Baigta">
       <formula>NOT(ISERROR(SEARCH("Baigta",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="8" operator="containsText" text="Vykdoma">
+    <cfRule type="containsText" dxfId="8" priority="8" operator="containsText" text="Vykdoma">
       <formula>NOT(ISERROR(SEARCH("Vykdoma",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="9" operator="containsText" text="Vėluoja">
+    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="Vėluoja">
       <formula>NOT(ISERROR(SEARCH("Vėluoja",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="10" operator="containsText" text="Nepradėta">
+    <cfRule type="containsText" dxfId="6" priority="10" operator="containsText" text="Nepradėta">
       <formula>NOT(ISERROR(SEARCH("Nepradėta",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5 B10">
-    <cfRule type="containsBlanks" dxfId="17" priority="6">
+    <cfRule type="containsBlanks" dxfId="5" priority="6">
       <formula>LEN(TRIM(B5))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15">
-    <cfRule type="containsText" dxfId="16" priority="2" operator="containsText" text="Baigta">
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="Baigta">
       <formula>NOT(ISERROR(SEARCH("Baigta",B15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="3" operator="containsText" text="Vykdoma">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Vykdoma">
       <formula>NOT(ISERROR(SEARCH("Vykdoma",B15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="4" operator="containsText" text="Vėluoja">
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="Vėluoja">
       <formula>NOT(ISERROR(SEARCH("Vėluoja",B15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="5" operator="containsText" text="Nepradėta">
+    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="Nepradėta">
       <formula>NOT(ISERROR(SEARCH("Nepradėta",B15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15">
-    <cfRule type="containsBlanks" dxfId="12" priority="1">
+    <cfRule type="containsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(B15))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2519,7 +2267,7 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="54" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
